--- a/PARA_HOSTALIA/chatGPT/mundoletras_levels_full_mechanics.xlsx
+++ b/PARA_HOSTALIA/chatGPT/mundoletras_levels_full_mechanics.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mundo_letras\PARA_HOSTALIA\chatGPT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EA5F6-D4FB-40B4-A3FF-9E316B77ADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4816,8 +4822,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4880,13 +4886,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4924,7 +4938,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4958,6 +4972,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4992,9 +5007,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5167,14 +5183,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5212,7 +5233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5250,7 +5271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5288,7 +5309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5326,7 +5347,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5364,7 +5385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5402,7 +5423,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5440,7 +5461,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5478,7 +5499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5516,7 +5537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5592,7 +5613,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5630,7 +5651,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5668,7 +5689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5706,7 +5727,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5744,7 +5765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5782,7 +5803,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5820,7 +5841,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5858,7 +5879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5896,7 +5917,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5934,7 +5955,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5972,7 +5993,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6010,7 +6031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6048,7 +6069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6086,7 +6107,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6124,7 +6145,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6162,7 +6183,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6200,7 +6221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6238,7 +6259,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6276,7 +6297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6314,7 +6335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6352,7 +6373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6390,7 +6411,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6428,7 +6449,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6466,7 +6487,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6504,7 +6525,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6542,7 +6563,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6580,7 +6601,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6618,7 +6639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6656,7 +6677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6694,7 +6715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6732,7 +6753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6770,7 +6791,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6808,7 +6829,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6846,7 +6867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6884,7 +6905,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6922,7 +6943,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6960,7 +6981,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6998,7 +7019,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7036,7 +7057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7074,7 +7095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7112,7 +7133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7150,7 +7171,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7188,7 +7209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7226,7 +7247,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7264,7 +7285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7302,7 +7323,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7340,7 +7361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7378,7 +7399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7416,7 +7437,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7454,7 +7475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7492,7 +7513,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7530,7 +7551,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7568,7 +7589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7606,7 +7627,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7644,7 +7665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7682,7 +7703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7720,7 +7741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7758,7 +7779,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7796,7 +7817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7834,7 +7855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7872,7 +7893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7910,7 +7931,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7948,7 +7969,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7986,7 +8007,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8024,7 +8045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8062,7 +8083,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8100,7 +8121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8138,7 +8159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8214,7 +8235,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8252,7 +8273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8290,7 +8311,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8328,7 +8349,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8366,7 +8387,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8404,7 +8425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8442,7 +8463,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8480,7 +8501,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8518,7 +8539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8556,7 +8577,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8594,7 +8615,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8632,7 +8653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8670,7 +8691,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8708,7 +8729,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8746,7 +8767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8784,7 +8805,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8822,7 +8843,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8860,7 +8881,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8898,7 +8919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8936,7 +8957,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8974,7 +8995,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9012,7 +9033,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9050,7 +9071,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9088,7 +9109,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9126,7 +9147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9164,7 +9185,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9202,7 +9223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9240,7 +9261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9278,7 +9299,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9316,7 +9337,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9354,7 +9375,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9392,7 +9413,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9430,7 +9451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9468,7 +9489,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9506,7 +9527,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9544,7 +9565,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9582,7 +9603,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9620,7 +9641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9658,7 +9679,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9696,7 +9717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9734,7 +9755,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9810,7 +9831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9848,7 +9869,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9886,7 +9907,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9924,7 +9945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9962,7 +9983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10000,7 +10021,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10038,7 +10059,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10076,7 +10097,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10114,7 +10135,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10152,7 +10173,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10190,7 +10211,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10228,7 +10249,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10266,7 +10287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10304,7 +10325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10342,7 +10363,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10380,7 +10401,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10418,7 +10439,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10456,7 +10477,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10494,7 +10515,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10532,7 +10553,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10570,7 +10591,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10608,7 +10629,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -10646,7 +10667,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -10684,7 +10705,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -10722,7 +10743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10760,7 +10781,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10798,7 +10819,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10836,7 +10857,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10874,7 +10895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10912,7 +10933,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10950,7 +10971,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10988,7 +11009,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11026,7 +11047,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11064,7 +11085,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11102,7 +11123,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11140,7 +11161,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11178,7 +11199,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11216,7 +11237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11254,7 +11275,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11292,7 +11313,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11330,7 +11351,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -11368,7 +11389,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -11406,7 +11427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -11444,7 +11465,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -11482,7 +11503,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -11520,7 +11541,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -11558,7 +11579,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -11596,7 +11617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -11634,7 +11655,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -11672,7 +11693,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -11710,7 +11731,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11748,7 +11769,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11786,7 +11807,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11824,7 +11845,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11862,7 +11883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11900,7 +11921,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11938,7 +11959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11976,7 +11997,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12014,7 +12035,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12052,7 +12073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12090,7 +12111,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12128,7 +12149,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12166,7 +12187,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12204,7 +12225,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12242,7 +12263,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12280,7 +12301,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12318,7 +12339,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12356,7 +12377,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12394,7 +12415,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12432,7 +12453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12470,7 +12491,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12508,7 +12529,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12546,7 +12567,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12584,7 +12605,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12622,7 +12643,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12660,7 +12681,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12698,7 +12719,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -12736,7 +12757,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12774,7 +12795,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -12812,7 +12833,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12850,7 +12871,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12888,7 +12909,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12926,7 +12947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12964,7 +12985,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13002,7 +13023,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13040,7 +13061,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13078,7 +13099,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13116,7 +13137,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13154,7 +13175,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13192,7 +13213,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13230,7 +13251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13268,7 +13289,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13306,7 +13327,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13344,7 +13365,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13382,7 +13403,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13420,7 +13441,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13458,7 +13479,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13496,7 +13517,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13534,7 +13555,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13572,7 +13593,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13610,7 +13631,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13648,7 +13669,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -13686,7 +13707,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13724,7 +13745,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13762,7 +13783,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13800,7 +13821,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13838,7 +13859,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13876,7 +13897,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -13914,7 +13935,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13952,7 +13973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -13990,7 +14011,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14028,7 +14049,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14066,7 +14087,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14104,7 +14125,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14142,7 +14163,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14180,7 +14201,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14218,7 +14239,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14256,7 +14277,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14294,7 +14315,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14332,7 +14353,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14370,7 +14391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14408,7 +14429,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14446,7 +14467,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14484,7 +14505,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14522,7 +14543,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14560,7 +14581,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14598,7 +14619,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14636,7 +14657,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14674,7 +14695,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14712,7 +14733,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14750,7 +14771,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14788,7 +14809,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14826,7 +14847,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14864,7 +14885,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14902,7 +14923,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14940,7 +14961,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14978,7 +14999,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -15016,7 +15037,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -15054,7 +15075,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -15092,7 +15113,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -15130,7 +15151,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -15168,7 +15189,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -15206,7 +15227,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -15244,7 +15265,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -15282,7 +15303,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -15320,7 +15341,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -15358,7 +15379,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -15396,7 +15417,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -15434,7 +15455,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -15472,7 +15493,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -15510,7 +15531,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15548,7 +15569,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15586,7 +15607,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15624,7 +15645,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15662,7 +15683,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15700,7 +15721,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15738,7 +15759,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15776,7 +15797,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15814,7 +15835,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15852,7 +15873,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15890,7 +15911,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15928,7 +15949,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15966,7 +15987,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -16004,7 +16025,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -16042,7 +16063,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -16080,7 +16101,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -16118,7 +16139,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -16156,7 +16177,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -16194,7 +16215,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -16232,7 +16253,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -16270,7 +16291,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -16308,7 +16329,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -16346,7 +16367,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -16384,7 +16405,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -16422,7 +16443,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -16460,7 +16481,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -16498,7 +16519,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -16536,7 +16557,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -16574,7 +16595,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -16612,7 +16633,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -16650,7 +16671,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -16688,7 +16709,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -16726,7 +16747,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -16764,7 +16785,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -16802,7 +16823,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -16840,7 +16861,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -16878,7 +16899,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -16916,7 +16937,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16954,7 +16975,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16992,7 +17013,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -17030,7 +17051,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -17068,7 +17089,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -17106,7 +17127,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -17144,7 +17165,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -17182,7 +17203,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -17220,7 +17241,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -17258,7 +17279,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -17296,7 +17317,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -17334,7 +17355,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -17372,7 +17393,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -17410,7 +17431,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -17448,7 +17469,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -17486,7 +17507,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -17524,7 +17545,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -17562,7 +17583,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -17600,7 +17621,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -17638,7 +17659,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -17676,7 +17697,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -17714,7 +17735,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -17752,7 +17773,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -17790,7 +17811,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -17828,7 +17849,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -17866,7 +17887,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -17904,7 +17925,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -17942,7 +17963,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -17980,7 +18001,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -18018,7 +18039,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -18056,7 +18077,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -18094,7 +18115,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -18132,7 +18153,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -18170,7 +18191,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -18208,7 +18229,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -18246,7 +18267,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -18284,7 +18305,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -18322,7 +18343,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -18360,7 +18381,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -18398,7 +18419,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -18436,7 +18457,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -18474,7 +18495,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -18512,7 +18533,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -18550,7 +18571,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -18588,7 +18609,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -18626,7 +18647,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -18664,7 +18685,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -18702,7 +18723,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -18740,7 +18761,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -18778,7 +18799,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -18816,7 +18837,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -18854,7 +18875,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -18892,7 +18913,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -18930,7 +18951,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -18968,7 +18989,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -19006,7 +19027,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -19044,7 +19065,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -19082,7 +19103,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -19120,7 +19141,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -19158,7 +19179,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -19196,7 +19217,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -19234,7 +19255,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -19272,7 +19293,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -19310,7 +19331,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -19348,7 +19369,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -19386,7 +19407,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -19424,7 +19445,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -19462,7 +19483,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -19500,7 +19521,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -19538,7 +19559,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -19576,7 +19597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -19614,7 +19635,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -19652,7 +19673,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -19690,7 +19711,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -19728,7 +19749,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -19766,7 +19787,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -19804,7 +19825,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -19842,7 +19863,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -19880,7 +19901,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -19918,7 +19939,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -19956,7 +19977,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -19994,7 +20015,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -20032,7 +20053,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -20070,7 +20091,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -20108,7 +20129,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -20146,7 +20167,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -20184,7 +20205,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -20222,7 +20243,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -20260,7 +20281,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -20298,7 +20319,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -20336,7 +20357,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -20374,7 +20395,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -20412,7 +20433,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -20450,7 +20471,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -20488,7 +20509,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -20526,7 +20547,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -20564,7 +20585,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -20602,7 +20623,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -20640,7 +20661,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -20678,7 +20699,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -20716,7 +20737,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -20754,7 +20775,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -20792,7 +20813,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -20830,7 +20851,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -20868,7 +20889,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -20906,7 +20927,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -20944,7 +20965,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -20982,7 +21003,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -21020,7 +21041,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -21058,7 +21079,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -21096,7 +21117,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -21134,7 +21155,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -21172,7 +21193,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -21210,7 +21231,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -21248,7 +21269,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -21286,7 +21307,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -21324,7 +21345,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -21362,7 +21383,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -21400,7 +21421,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -21438,7 +21459,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -21476,7 +21497,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -21514,7 +21535,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -21552,7 +21573,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -21590,7 +21611,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -21628,7 +21649,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -21666,7 +21687,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -21704,7 +21725,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -21742,7 +21763,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -21780,7 +21801,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -21818,7 +21839,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -21856,7 +21877,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -21894,7 +21915,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -21932,7 +21953,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -21970,7 +21991,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -22008,7 +22029,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -22046,7 +22067,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -22084,7 +22105,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -22122,7 +22143,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -22160,7 +22181,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -22198,7 +22219,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -22236,7 +22257,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -22274,7 +22295,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -22312,7 +22333,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -22350,7 +22371,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -22388,7 +22409,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -22426,7 +22447,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -22464,7 +22485,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -22502,7 +22523,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -22540,7 +22561,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -22578,7 +22599,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -22616,7 +22637,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -22654,7 +22675,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -22692,7 +22713,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -22730,7 +22751,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -22768,7 +22789,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -22806,7 +22827,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -22844,7 +22865,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -22882,7 +22903,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -22920,7 +22941,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -22958,7 +22979,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -22996,7 +23017,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -23034,7 +23055,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -23072,7 +23093,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -23110,7 +23131,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -23148,7 +23169,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -23186,7 +23207,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -23224,7 +23245,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -23262,7 +23283,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -23300,7 +23321,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -23338,7 +23359,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -23376,7 +23397,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -23414,7 +23435,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -23452,7 +23473,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -23490,7 +23511,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -23528,7 +23549,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -23566,7 +23587,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -23604,7 +23625,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -23642,7 +23663,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -23680,7 +23701,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -23718,7 +23739,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -23756,7 +23777,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -23794,7 +23815,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -23832,7 +23853,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -23870,7 +23891,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -23908,7 +23929,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -23946,7 +23967,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -23984,7 +24005,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -24022,7 +24043,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -24060,7 +24081,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -24098,7 +24119,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -24136,7 +24157,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -24174,7 +24195,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -24212,7 +24233,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -24250,7 +24271,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -24288,7 +24309,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -24326,7 +24347,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -24364,7 +24385,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -24402,7 +24423,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -24440,7 +24461,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -24478,7 +24499,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -24516,7 +24537,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -24554,7 +24575,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -24592,7 +24613,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>511</v>
       </c>
@@ -24630,7 +24651,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>512</v>
       </c>
@@ -24668,7 +24689,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>513</v>
       </c>
@@ -24706,7 +24727,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>514</v>
       </c>
@@ -24744,7 +24765,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>515</v>
       </c>
@@ -24782,7 +24803,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>516</v>
       </c>
@@ -24820,7 +24841,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>517</v>
       </c>
@@ -24858,7 +24879,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>518</v>
       </c>
@@ -24896,7 +24917,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>519</v>
       </c>
@@ -24934,7 +24955,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>520</v>
       </c>
@@ -24972,7 +24993,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>521</v>
       </c>
@@ -25010,7 +25031,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -25048,7 +25069,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>523</v>
       </c>
@@ -25086,7 +25107,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>524</v>
       </c>
@@ -25124,7 +25145,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>525</v>
       </c>
@@ -25162,7 +25183,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>526</v>
       </c>
@@ -25200,7 +25221,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>527</v>
       </c>
@@ -25238,7 +25259,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -25276,7 +25297,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>529</v>
       </c>
@@ -25314,7 +25335,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>530</v>
       </c>
@@ -25352,7 +25373,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>531</v>
       </c>
@@ -25390,7 +25411,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>532</v>
       </c>
@@ -25428,7 +25449,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>533</v>
       </c>
@@ -25466,7 +25487,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>534</v>
       </c>
@@ -25504,7 +25525,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>535</v>
       </c>
@@ -25542,7 +25563,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>536</v>
       </c>
@@ -25580,7 +25601,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>537</v>
       </c>
@@ -25618,7 +25639,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>538</v>
       </c>
@@ -25656,7 +25677,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -25694,7 +25715,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>540</v>
       </c>
@@ -25732,7 +25753,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>541</v>
       </c>
@@ -25770,7 +25791,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>542</v>
       </c>
@@ -25808,7 +25829,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="544" spans="1:12">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>543</v>
       </c>
@@ -25846,7 +25867,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>544</v>
       </c>
@@ -25884,7 +25905,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="546" spans="1:12">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>545</v>
       </c>
@@ -25922,7 +25943,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>546</v>
       </c>
@@ -25960,7 +25981,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>547</v>
       </c>
@@ -25998,7 +26019,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>548</v>
       </c>
@@ -26036,7 +26057,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="550" spans="1:12">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>549</v>
       </c>
@@ -26074,7 +26095,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="551" spans="1:12">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>550</v>
       </c>
@@ -26112,7 +26133,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="552" spans="1:12">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>551</v>
       </c>
@@ -26150,7 +26171,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="553" spans="1:12">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>552</v>
       </c>
@@ -26188,7 +26209,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>553</v>
       </c>
@@ -26226,7 +26247,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>554</v>
       </c>
@@ -26264,7 +26285,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>555</v>
       </c>
@@ -26302,7 +26323,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="557" spans="1:12">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>556</v>
       </c>
@@ -26340,7 +26361,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>557</v>
       </c>
@@ -26378,7 +26399,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="559" spans="1:12">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>558</v>
       </c>
@@ -26416,7 +26437,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="560" spans="1:12">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>559</v>
       </c>
@@ -26454,7 +26475,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="561" spans="1:12">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>560</v>
       </c>
@@ -26492,7 +26513,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>561</v>
       </c>
@@ -26530,7 +26551,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="563" spans="1:12">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>562</v>
       </c>
@@ -26568,7 +26589,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>563</v>
       </c>
@@ -26606,7 +26627,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>564</v>
       </c>
@@ -26644,7 +26665,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="566" spans="1:12">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>565</v>
       </c>
@@ -26682,7 +26703,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="567" spans="1:12">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>566</v>
       </c>
@@ -26720,7 +26741,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="568" spans="1:12">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>567</v>
       </c>
@@ -26758,7 +26779,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="569" spans="1:12">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>568</v>
       </c>
@@ -26796,7 +26817,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="570" spans="1:12">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>569</v>
       </c>
@@ -26834,7 +26855,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>570</v>
       </c>
@@ -26872,7 +26893,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="572" spans="1:12">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>571</v>
       </c>
@@ -26910,7 +26931,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="573" spans="1:12">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>572</v>
       </c>
@@ -26948,7 +26969,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="574" spans="1:12">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>573</v>
       </c>
@@ -26986,7 +27007,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="575" spans="1:12">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>574</v>
       </c>
@@ -27024,7 +27045,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>575</v>
       </c>
@@ -27062,7 +27083,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="577" spans="1:12">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>576</v>
       </c>
@@ -27100,7 +27121,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="578" spans="1:12">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>577</v>
       </c>
@@ -27138,7 +27159,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>578</v>
       </c>
@@ -27176,7 +27197,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="580" spans="1:12">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>579</v>
       </c>
@@ -27214,7 +27235,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="581" spans="1:12">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>580</v>
       </c>
@@ -27252,7 +27273,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="582" spans="1:12">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>581</v>
       </c>
@@ -27290,7 +27311,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="583" spans="1:12">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>582</v>
       </c>
@@ -27328,7 +27349,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="584" spans="1:12">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>583</v>
       </c>
@@ -27366,7 +27387,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="585" spans="1:12">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>584</v>
       </c>
@@ -27404,7 +27425,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>585</v>
       </c>
@@ -27442,7 +27463,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>586</v>
       </c>
@@ -27480,7 +27501,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>587</v>
       </c>
@@ -27518,7 +27539,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="589" spans="1:12">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>588</v>
       </c>
@@ -27556,7 +27577,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>589</v>
       </c>
@@ -27594,7 +27615,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="591" spans="1:12">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>590</v>
       </c>
@@ -27632,7 +27653,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="592" spans="1:12">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>591</v>
       </c>
@@ -27670,7 +27691,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>592</v>
       </c>
@@ -27708,7 +27729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>593</v>
       </c>
@@ -27746,7 +27767,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="595" spans="1:12">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>594</v>
       </c>
@@ -27784,7 +27805,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="596" spans="1:12">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>595</v>
       </c>
@@ -27822,7 +27843,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>596</v>
       </c>
@@ -27860,7 +27881,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>597</v>
       </c>
@@ -27898,7 +27919,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>598</v>
       </c>
@@ -27936,7 +27957,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>599</v>
       </c>
@@ -27974,7 +27995,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>600</v>
       </c>
@@ -28012,7 +28033,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="602" spans="1:12">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>601</v>
       </c>
@@ -28050,7 +28071,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="603" spans="1:12">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>602</v>
       </c>
@@ -28088,7 +28109,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="604" spans="1:12">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>603</v>
       </c>
@@ -28126,7 +28147,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>604</v>
       </c>
@@ -28164,7 +28185,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>605</v>
       </c>
@@ -28202,7 +28223,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="607" spans="1:12">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>606</v>
       </c>
@@ -28240,7 +28261,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="608" spans="1:12">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>607</v>
       </c>
@@ -28278,7 +28299,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="609" spans="1:12">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>608</v>
       </c>
@@ -28316,7 +28337,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>609</v>
       </c>
@@ -28354,7 +28375,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="611" spans="1:12">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>610</v>
       </c>
@@ -28392,7 +28413,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>611</v>
       </c>
@@ -28430,7 +28451,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>612</v>
       </c>
@@ -28468,7 +28489,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>613</v>
       </c>
@@ -28506,7 +28527,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="615" spans="1:12">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>614</v>
       </c>
@@ -28544,7 +28565,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="616" spans="1:12">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -28582,7 +28603,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="617" spans="1:12">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>616</v>
       </c>
@@ -28620,7 +28641,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="618" spans="1:12">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>617</v>
       </c>
@@ -28658,7 +28679,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="619" spans="1:12">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>618</v>
       </c>
@@ -28696,7 +28717,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="620" spans="1:12">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>619</v>
       </c>
@@ -28734,7 +28755,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="621" spans="1:12">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>620</v>
       </c>
@@ -28772,7 +28793,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="622" spans="1:12">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>621</v>
       </c>
@@ -28810,7 +28831,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="623" spans="1:12">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>622</v>
       </c>
@@ -28848,7 +28869,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="624" spans="1:12">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>623</v>
       </c>
@@ -28886,7 +28907,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="625" spans="1:12">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -28924,7 +28945,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="626" spans="1:12">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -28962,7 +28983,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="627" spans="1:12">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -29000,7 +29021,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="628" spans="1:12">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -29038,7 +29059,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="629" spans="1:12">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -29076,7 +29097,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -29114,7 +29135,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="631" spans="1:12">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -29152,7 +29173,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="632" spans="1:12">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -29190,7 +29211,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="633" spans="1:12">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -29228,7 +29249,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="634" spans="1:12">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -29266,7 +29287,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="635" spans="1:12">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -29304,7 +29325,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="636" spans="1:12">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -29342,7 +29363,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="637" spans="1:12">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -29380,7 +29401,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="638" spans="1:12">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -29418,7 +29439,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="639" spans="1:12">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -29456,7 +29477,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="640" spans="1:12">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>
@@ -29494,7 +29515,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="641" spans="1:12">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>640</v>
       </c>
@@ -29532,7 +29553,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="642" spans="1:12">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>641</v>
       </c>
@@ -29570,7 +29591,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="643" spans="1:12">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>642</v>
       </c>
@@ -29608,7 +29629,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="644" spans="1:12">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>643</v>
       </c>
@@ -29646,7 +29667,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="645" spans="1:12">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>644</v>
       </c>
@@ -29684,7 +29705,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="646" spans="1:12">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>645</v>
       </c>
@@ -29722,7 +29743,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="647" spans="1:12">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>646</v>
       </c>
@@ -29760,7 +29781,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="648" spans="1:12">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>647</v>
       </c>
@@ -29798,7 +29819,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="649" spans="1:12">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>648</v>
       </c>
@@ -29836,7 +29857,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="650" spans="1:12">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>649</v>
       </c>
@@ -29874,7 +29895,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="651" spans="1:12">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>650</v>
       </c>
@@ -29912,7 +29933,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="652" spans="1:12">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>651</v>
       </c>
@@ -29950,7 +29971,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="653" spans="1:12">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>652</v>
       </c>
@@ -29988,7 +30009,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="654" spans="1:12">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>653</v>
       </c>
@@ -30026,7 +30047,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="655" spans="1:12">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>654</v>
       </c>
@@ -30064,7 +30085,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="656" spans="1:12">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>655</v>
       </c>
@@ -30102,7 +30123,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="657" spans="1:12">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>656</v>
       </c>
@@ -30140,7 +30161,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="658" spans="1:12">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>657</v>
       </c>
@@ -30178,7 +30199,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="659" spans="1:12">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>658</v>
       </c>
@@ -30216,7 +30237,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="660" spans="1:12">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>659</v>
       </c>
@@ -30254,7 +30275,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="661" spans="1:12">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -30292,7 +30313,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>661</v>
       </c>
@@ -30330,7 +30351,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>662</v>
       </c>
@@ -30368,7 +30389,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="664" spans="1:12">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>663</v>
       </c>
@@ -30406,7 +30427,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="665" spans="1:12">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>664</v>
       </c>
@@ -30444,7 +30465,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="666" spans="1:12">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>665</v>
       </c>
@@ -30482,7 +30503,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="667" spans="1:12">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>666</v>
       </c>
@@ -30520,7 +30541,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="668" spans="1:12">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>667</v>
       </c>
@@ -30558,7 +30579,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="669" spans="1:12">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>668</v>
       </c>
@@ -30596,7 +30617,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="670" spans="1:12">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>669</v>
       </c>
@@ -30634,7 +30655,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="671" spans="1:12">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>670</v>
       </c>
@@ -30672,7 +30693,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="672" spans="1:12">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>671</v>
       </c>
@@ -30710,7 +30731,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="673" spans="1:12">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>672</v>
       </c>
@@ -30748,7 +30769,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="674" spans="1:12">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>673</v>
       </c>
@@ -30786,7 +30807,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>674</v>
       </c>
@@ -30824,7 +30845,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="676" spans="1:12">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>675</v>
       </c>
@@ -30862,7 +30883,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="677" spans="1:12">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>676</v>
       </c>
@@ -30900,7 +30921,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="678" spans="1:12">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>677</v>
       </c>
@@ -30938,7 +30959,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="679" spans="1:12">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>678</v>
       </c>
@@ -30976,7 +30997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="680" spans="1:12">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>679</v>
       </c>
@@ -31014,7 +31035,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>680</v>
       </c>
@@ -31052,7 +31073,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="682" spans="1:12">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>681</v>
       </c>
@@ -31090,7 +31111,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="683" spans="1:12">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>682</v>
       </c>
@@ -31128,7 +31149,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="684" spans="1:12">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>683</v>
       </c>
@@ -31166,7 +31187,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="685" spans="1:12">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>684</v>
       </c>
@@ -31204,7 +31225,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="686" spans="1:12">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>685</v>
       </c>
@@ -31242,7 +31263,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="687" spans="1:12">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>686</v>
       </c>
@@ -31280,7 +31301,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="688" spans="1:12">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -31318,7 +31339,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="689" spans="1:12">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>688</v>
       </c>
@@ -31356,7 +31377,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="690" spans="1:12">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>689</v>
       </c>
@@ -31394,7 +31415,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="691" spans="1:12">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>690</v>
       </c>
@@ -31432,7 +31453,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="692" spans="1:12">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>691</v>
       </c>
@@ -31470,7 +31491,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="693" spans="1:12">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>692</v>
       </c>
@@ -31508,7 +31529,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="694" spans="1:12">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>693</v>
       </c>
@@ -31546,7 +31567,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="695" spans="1:12">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>694</v>
       </c>
@@ -31584,7 +31605,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="696" spans="1:12">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>695</v>
       </c>
@@ -31622,7 +31643,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="697" spans="1:12">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>696</v>
       </c>
@@ -31660,7 +31681,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="698" spans="1:12">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>697</v>
       </c>
@@ -31698,7 +31719,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="699" spans="1:12">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>698</v>
       </c>
@@ -31736,7 +31757,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="700" spans="1:12">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>699</v>
       </c>
@@ -31774,7 +31795,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="701" spans="1:12">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>700</v>
       </c>
@@ -31812,7 +31833,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="702" spans="1:12">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>701</v>
       </c>
@@ -31850,7 +31871,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="703" spans="1:12">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>702</v>
       </c>
@@ -31888,7 +31909,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="704" spans="1:12">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>703</v>
       </c>
@@ -31926,7 +31947,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="705" spans="1:12">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>704</v>
       </c>
@@ -31964,7 +31985,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="706" spans="1:12">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>705</v>
       </c>
@@ -32002,7 +32023,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="707" spans="1:12">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>706</v>
       </c>
@@ -32040,7 +32061,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="708" spans="1:12">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>707</v>
       </c>
@@ -32078,7 +32099,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="709" spans="1:12">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>708</v>
       </c>
@@ -32116,7 +32137,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="710" spans="1:12">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>709</v>
       </c>
@@ -32154,7 +32175,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="711" spans="1:12">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>710</v>
       </c>
@@ -32192,7 +32213,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="712" spans="1:12">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>711</v>
       </c>
@@ -32230,7 +32251,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="713" spans="1:12">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>712</v>
       </c>
@@ -32268,7 +32289,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="714" spans="1:12">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>713</v>
       </c>
@@ -32306,7 +32327,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="715" spans="1:12">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>714</v>
       </c>
@@ -32344,7 +32365,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="716" spans="1:12">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>715</v>
       </c>
@@ -32382,7 +32403,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>716</v>
       </c>
@@ -32420,7 +32441,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>717</v>
       </c>
@@ -32458,7 +32479,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="719" spans="1:12">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>718</v>
       </c>
@@ -32496,7 +32517,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="720" spans="1:12">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>719</v>
       </c>
@@ -32534,7 +32555,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="721" spans="1:12">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>720</v>
       </c>
@@ -32572,7 +32593,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="722" spans="1:12">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>721</v>
       </c>
@@ -32610,7 +32631,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="723" spans="1:12">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>722</v>
       </c>
@@ -32648,7 +32669,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="724" spans="1:12">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>723</v>
       </c>
@@ -32686,7 +32707,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="725" spans="1:12">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>724</v>
       </c>
@@ -32724,7 +32745,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="726" spans="1:12">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>725</v>
       </c>
@@ -32762,7 +32783,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="727" spans="1:12">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>726</v>
       </c>
@@ -32800,7 +32821,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="728" spans="1:12">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>727</v>
       </c>
@@ -32838,7 +32859,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="729" spans="1:12">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>728</v>
       </c>
@@ -32876,7 +32897,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="730" spans="1:12">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>729</v>
       </c>
@@ -32914,7 +32935,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="731" spans="1:12">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>730</v>
       </c>
@@ -32952,7 +32973,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="732" spans="1:12">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>731</v>
       </c>
@@ -32990,7 +33011,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="733" spans="1:12">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>732</v>
       </c>
@@ -33028,7 +33049,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="734" spans="1:12">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>733</v>
       </c>
@@ -33066,7 +33087,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="735" spans="1:12">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>734</v>
       </c>
@@ -33104,7 +33125,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="736" spans="1:12">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>735</v>
       </c>
@@ -33142,7 +33163,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="737" spans="1:12">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>736</v>
       </c>
@@ -33180,7 +33201,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="738" spans="1:12">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>737</v>
       </c>
@@ -33218,7 +33239,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="739" spans="1:12">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>738</v>
       </c>
@@ -33256,7 +33277,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="740" spans="1:12">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>739</v>
       </c>
@@ -33294,7 +33315,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="741" spans="1:12">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>740</v>
       </c>
@@ -33332,7 +33353,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="742" spans="1:12">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>741</v>
       </c>
@@ -33370,7 +33391,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="743" spans="1:12">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>742</v>
       </c>
@@ -33408,7 +33429,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="744" spans="1:12">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>743</v>
       </c>
@@ -33446,7 +33467,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="745" spans="1:12">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>744</v>
       </c>
@@ -33484,7 +33505,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="746" spans="1:12">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>745</v>
       </c>
@@ -33522,7 +33543,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="747" spans="1:12">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>746</v>
       </c>
@@ -33560,7 +33581,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="748" spans="1:12">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>747</v>
       </c>
@@ -33598,7 +33619,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="749" spans="1:12">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>748</v>
       </c>
@@ -33636,7 +33657,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="750" spans="1:12">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>749</v>
       </c>
@@ -33674,7 +33695,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="751" spans="1:12">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>750</v>
       </c>
@@ -33712,7 +33733,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="752" spans="1:12">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>751</v>
       </c>
@@ -33750,7 +33771,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="753" spans="1:12">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>752</v>
       </c>
@@ -33788,7 +33809,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="754" spans="1:12">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>753</v>
       </c>
@@ -33826,7 +33847,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="755" spans="1:12">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>754</v>
       </c>
@@ -33864,7 +33885,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="756" spans="1:12">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>755</v>
       </c>
@@ -33902,7 +33923,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="757" spans="1:12">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>756</v>
       </c>
@@ -33940,7 +33961,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="758" spans="1:12">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>757</v>
       </c>
@@ -33978,7 +33999,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="759" spans="1:12">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>758</v>
       </c>
@@ -34016,7 +34037,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="760" spans="1:12">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>759</v>
       </c>
@@ -34054,7 +34075,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="761" spans="1:12">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>760</v>
       </c>
@@ -34092,7 +34113,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="762" spans="1:12">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>761</v>
       </c>
@@ -34130,7 +34151,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="763" spans="1:12">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>762</v>
       </c>
@@ -34168,7 +34189,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="764" spans="1:12">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>763</v>
       </c>
@@ -34206,7 +34227,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="765" spans="1:12">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>764</v>
       </c>
@@ -34244,7 +34265,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="766" spans="1:12">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>765</v>
       </c>
@@ -34282,7 +34303,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="767" spans="1:12">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>766</v>
       </c>
@@ -34320,7 +34341,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="768" spans="1:12">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>767</v>
       </c>
@@ -34358,7 +34379,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="769" spans="1:12">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>768</v>
       </c>
@@ -34396,7 +34417,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="770" spans="1:12">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>769</v>
       </c>
@@ -34434,7 +34455,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="771" spans="1:12">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>770</v>
       </c>
@@ -34472,7 +34493,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="772" spans="1:12">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>771</v>
       </c>
@@ -34510,7 +34531,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="773" spans="1:12">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>772</v>
       </c>
@@ -34548,7 +34569,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="774" spans="1:12">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>773</v>
       </c>
@@ -34586,7 +34607,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="775" spans="1:12">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>774</v>
       </c>
@@ -34624,7 +34645,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="776" spans="1:12">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>775</v>
       </c>
@@ -34662,7 +34683,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="777" spans="1:12">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>776</v>
       </c>
@@ -34700,7 +34721,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="778" spans="1:12">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>777</v>
       </c>
@@ -34738,7 +34759,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="779" spans="1:12">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>778</v>
       </c>
@@ -34776,7 +34797,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="780" spans="1:12">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>779</v>
       </c>
@@ -34814,7 +34835,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="781" spans="1:12">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>780</v>
       </c>
@@ -34852,7 +34873,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="782" spans="1:12">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>781</v>
       </c>
@@ -34890,7 +34911,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="783" spans="1:12">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>782</v>
       </c>
@@ -34928,7 +34949,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="784" spans="1:12">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>783</v>
       </c>
@@ -34966,7 +34987,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="785" spans="1:12">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>784</v>
       </c>
@@ -35004,7 +35025,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="786" spans="1:12">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>785</v>
       </c>
@@ -35042,7 +35063,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="787" spans="1:12">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>786</v>
       </c>
@@ -35080,7 +35101,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="788" spans="1:12">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>787</v>
       </c>
@@ -35118,7 +35139,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="789" spans="1:12">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>788</v>
       </c>
@@ -35156,7 +35177,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="790" spans="1:12">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>789</v>
       </c>
@@ -35194,7 +35215,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="791" spans="1:12">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>790</v>
       </c>
@@ -35232,7 +35253,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="792" spans="1:12">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>791</v>
       </c>
@@ -35270,7 +35291,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="793" spans="1:12">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>792</v>
       </c>
@@ -35308,7 +35329,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="794" spans="1:12">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>793</v>
       </c>
@@ -35346,7 +35367,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="795" spans="1:12">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>794</v>
       </c>
@@ -35384,7 +35405,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="796" spans="1:12">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>795</v>
       </c>
@@ -35422,7 +35443,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="797" spans="1:12">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>796</v>
       </c>
@@ -35460,7 +35481,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="798" spans="1:12">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>797</v>
       </c>
@@ -35498,7 +35519,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="799" spans="1:12">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>798</v>
       </c>
@@ -35536,7 +35557,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="800" spans="1:12">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>799</v>
       </c>
@@ -35574,7 +35595,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="801" spans="1:12">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>800</v>
       </c>
@@ -35612,7 +35633,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="802" spans="1:12">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>801</v>
       </c>
@@ -35650,7 +35671,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="803" spans="1:12">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>802</v>
       </c>
@@ -35688,7 +35709,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="804" spans="1:12">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>803</v>
       </c>
@@ -35726,7 +35747,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="805" spans="1:12">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>804</v>
       </c>
@@ -35764,7 +35785,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="806" spans="1:12">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>805</v>
       </c>
@@ -35802,7 +35823,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="807" spans="1:12">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>806</v>
       </c>
@@ -35840,7 +35861,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="808" spans="1:12">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>807</v>
       </c>
@@ -35878,7 +35899,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="809" spans="1:12">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>808</v>
       </c>
@@ -35916,7 +35937,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="810" spans="1:12">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>809</v>
       </c>
@@ -35954,7 +35975,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="811" spans="1:12">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>810</v>
       </c>
@@ -35992,7 +36013,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="812" spans="1:12">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>811</v>
       </c>
@@ -36030,7 +36051,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="813" spans="1:12">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>812</v>
       </c>
@@ -36068,7 +36089,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="814" spans="1:12">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>813</v>
       </c>
@@ -36106,7 +36127,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="815" spans="1:12">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>814</v>
       </c>
@@ -36144,7 +36165,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="816" spans="1:12">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>815</v>
       </c>
@@ -36182,7 +36203,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="817" spans="1:12">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>816</v>
       </c>
@@ -36220,7 +36241,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="818" spans="1:12">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>817</v>
       </c>
@@ -36258,7 +36279,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="819" spans="1:12">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>818</v>
       </c>
@@ -36296,7 +36317,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="820" spans="1:12">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>819</v>
       </c>
@@ -36334,7 +36355,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="821" spans="1:12">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>820</v>
       </c>
@@ -36372,7 +36393,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="822" spans="1:12">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>821</v>
       </c>
@@ -36410,7 +36431,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="823" spans="1:12">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>822</v>
       </c>
@@ -36448,7 +36469,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="824" spans="1:12">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>823</v>
       </c>
@@ -36486,7 +36507,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="825" spans="1:12">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>824</v>
       </c>
@@ -36524,7 +36545,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="826" spans="1:12">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>825</v>
       </c>
@@ -36562,7 +36583,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="827" spans="1:12">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>826</v>
       </c>
@@ -36600,7 +36621,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="828" spans="1:12">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>827</v>
       </c>
@@ -36638,7 +36659,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="829" spans="1:12">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>828</v>
       </c>
@@ -36676,7 +36697,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="830" spans="1:12">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>829</v>
       </c>
@@ -36714,7 +36735,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="831" spans="1:12">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>830</v>
       </c>
@@ -36752,7 +36773,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="832" spans="1:12">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>831</v>
       </c>
@@ -36790,7 +36811,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="833" spans="1:12">
+    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>832</v>
       </c>
@@ -36828,7 +36849,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="834" spans="1:12">
+    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>833</v>
       </c>
@@ -36866,7 +36887,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="835" spans="1:12">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>834</v>
       </c>
@@ -36904,7 +36925,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="836" spans="1:12">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>835</v>
       </c>
@@ -36942,7 +36963,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="837" spans="1:12">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>836</v>
       </c>
@@ -36980,7 +37001,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="838" spans="1:12">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>837</v>
       </c>
@@ -37018,7 +37039,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="839" spans="1:12">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>838</v>
       </c>
@@ -37056,7 +37077,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="840" spans="1:12">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>839</v>
       </c>
@@ -37094,7 +37115,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="841" spans="1:12">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>840</v>
       </c>
@@ -37132,7 +37153,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="842" spans="1:12">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>841</v>
       </c>
@@ -37170,7 +37191,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="843" spans="1:12">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>842</v>
       </c>
@@ -37208,7 +37229,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="844" spans="1:12">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>843</v>
       </c>
@@ -37246,7 +37267,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="845" spans="1:12">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>844</v>
       </c>
@@ -37284,7 +37305,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="846" spans="1:12">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>845</v>
       </c>
@@ -37322,7 +37343,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="847" spans="1:12">
+    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>846</v>
       </c>
@@ -37360,7 +37381,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="848" spans="1:12">
+    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>847</v>
       </c>
@@ -37398,7 +37419,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="849" spans="1:12">
+    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>848</v>
       </c>
@@ -37436,7 +37457,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="850" spans="1:12">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>849</v>
       </c>
@@ -37474,7 +37495,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="851" spans="1:12">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>850</v>
       </c>
@@ -37512,7 +37533,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="852" spans="1:12">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>851</v>
       </c>
@@ -37550,7 +37571,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="853" spans="1:12">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>852</v>
       </c>
@@ -37588,7 +37609,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="854" spans="1:12">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>853</v>
       </c>
@@ -37626,7 +37647,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="855" spans="1:12">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>854</v>
       </c>
@@ -37664,7 +37685,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="856" spans="1:12">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>855</v>
       </c>
@@ -37702,7 +37723,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="857" spans="1:12">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>856</v>
       </c>
@@ -37740,7 +37761,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="858" spans="1:12">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>857</v>
       </c>
@@ -37778,7 +37799,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="859" spans="1:12">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>858</v>
       </c>
@@ -37816,7 +37837,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="860" spans="1:12">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>859</v>
       </c>
@@ -37854,7 +37875,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="861" spans="1:12">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>860</v>
       </c>
@@ -37892,7 +37913,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="862" spans="1:12">
+    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>861</v>
       </c>
@@ -37930,7 +37951,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="863" spans="1:12">
+    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>862</v>
       </c>
@@ -37968,7 +37989,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="864" spans="1:12">
+    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>863</v>
       </c>
@@ -38006,7 +38027,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="865" spans="1:12">
+    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>864</v>
       </c>
@@ -38044,7 +38065,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="866" spans="1:12">
+    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>865</v>
       </c>
@@ -38082,7 +38103,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="867" spans="1:12">
+    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>866</v>
       </c>
@@ -38120,7 +38141,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="868" spans="1:12">
+    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>867</v>
       </c>
@@ -38158,7 +38179,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="869" spans="1:12">
+    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>868</v>
       </c>
@@ -38196,7 +38217,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="870" spans="1:12">
+    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>869</v>
       </c>
@@ -38234,7 +38255,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="871" spans="1:12">
+    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>870</v>
       </c>
@@ -38272,7 +38293,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="872" spans="1:12">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>871</v>
       </c>
@@ -38310,7 +38331,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="873" spans="1:12">
+    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>872</v>
       </c>
@@ -38348,7 +38369,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="874" spans="1:12">
+    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>873</v>
       </c>
@@ -38386,7 +38407,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="875" spans="1:12">
+    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>874</v>
       </c>
@@ -38424,7 +38445,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="876" spans="1:12">
+    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>875</v>
       </c>
@@ -38462,7 +38483,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="877" spans="1:12">
+    <row r="877" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>876</v>
       </c>
@@ -38500,7 +38521,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="878" spans="1:12">
+    <row r="878" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>877</v>
       </c>
@@ -38538,7 +38559,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="879" spans="1:12">
+    <row r="879" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>878</v>
       </c>
@@ -38576,7 +38597,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="880" spans="1:12">
+    <row r="880" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>879</v>
       </c>
@@ -38614,7 +38635,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="881" spans="1:12">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>880</v>
       </c>
@@ -38652,7 +38673,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="882" spans="1:12">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>881</v>
       </c>
@@ -38690,7 +38711,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="883" spans="1:12">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>882</v>
       </c>
@@ -38728,7 +38749,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="884" spans="1:12">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>883</v>
       </c>
@@ -38766,7 +38787,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="885" spans="1:12">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>884</v>
       </c>
@@ -38804,7 +38825,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="886" spans="1:12">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>885</v>
       </c>
@@ -38842,7 +38863,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="887" spans="1:12">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>886</v>
       </c>
@@ -38880,7 +38901,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="888" spans="1:12">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>887</v>
       </c>
@@ -38918,7 +38939,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="889" spans="1:12">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>888</v>
       </c>
@@ -38956,7 +38977,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="890" spans="1:12">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>889</v>
       </c>
@@ -38994,7 +39015,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="891" spans="1:12">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>890</v>
       </c>
@@ -39032,7 +39053,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="892" spans="1:12">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>891</v>
       </c>
@@ -39070,7 +39091,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="893" spans="1:12">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>892</v>
       </c>
@@ -39108,7 +39129,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="894" spans="1:12">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>893</v>
       </c>
@@ -39146,7 +39167,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="895" spans="1:12">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>894</v>
       </c>
@@ -39184,7 +39205,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="896" spans="1:12">
+    <row r="896" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>895</v>
       </c>
@@ -39222,7 +39243,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="897" spans="1:12">
+    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>896</v>
       </c>
@@ -39260,7 +39281,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="898" spans="1:12">
+    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>897</v>
       </c>
@@ -39298,7 +39319,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="899" spans="1:12">
+    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>898</v>
       </c>
@@ -39336,7 +39357,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="900" spans="1:12">
+    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>899</v>
       </c>
@@ -39374,7 +39395,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="901" spans="1:12">
+    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>900</v>
       </c>
@@ -39412,7 +39433,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="902" spans="1:12">
+    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>901</v>
       </c>
@@ -39450,7 +39471,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="903" spans="1:12">
+    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>902</v>
       </c>
@@ -39488,7 +39509,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="904" spans="1:12">
+    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>903</v>
       </c>
@@ -39526,7 +39547,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="905" spans="1:12">
+    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>904</v>
       </c>
@@ -39564,7 +39585,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="906" spans="1:12">
+    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>905</v>
       </c>
@@ -39602,7 +39623,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="907" spans="1:12">
+    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>906</v>
       </c>
@@ -39640,7 +39661,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="908" spans="1:12">
+    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>907</v>
       </c>
@@ -39678,7 +39699,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="909" spans="1:12">
+    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>908</v>
       </c>
@@ -39716,7 +39737,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="910" spans="1:12">
+    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>909</v>
       </c>
@@ -39754,7 +39775,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="911" spans="1:12">
+    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>910</v>
       </c>
@@ -39792,7 +39813,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="912" spans="1:12">
+    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>911</v>
       </c>
@@ -39830,7 +39851,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="913" spans="1:12">
+    <row r="913" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>912</v>
       </c>
@@ -39868,7 +39889,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="914" spans="1:12">
+    <row r="914" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>913</v>
       </c>
@@ -39906,7 +39927,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="915" spans="1:12">
+    <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>914</v>
       </c>
@@ -39944,7 +39965,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="916" spans="1:12">
+    <row r="916" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>915</v>
       </c>
@@ -39982,7 +40003,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="917" spans="1:12">
+    <row r="917" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>916</v>
       </c>
@@ -40020,7 +40041,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="918" spans="1:12">
+    <row r="918" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>917</v>
       </c>
@@ -40058,7 +40079,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="919" spans="1:12">
+    <row r="919" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>918</v>
       </c>
@@ -40096,7 +40117,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="920" spans="1:12">
+    <row r="920" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>919</v>
       </c>
@@ -40134,7 +40155,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="921" spans="1:12">
+    <row r="921" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>920</v>
       </c>
@@ -40172,7 +40193,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="922" spans="1:12">
+    <row r="922" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>921</v>
       </c>
@@ -40210,7 +40231,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="923" spans="1:12">
+    <row r="923" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>922</v>
       </c>
@@ -40248,7 +40269,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="924" spans="1:12">
+    <row r="924" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>923</v>
       </c>
@@ -40286,7 +40307,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="925" spans="1:12">
+    <row r="925" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>924</v>
       </c>
@@ -40324,7 +40345,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="926" spans="1:12">
+    <row r="926" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>925</v>
       </c>
@@ -40362,7 +40383,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="927" spans="1:12">
+    <row r="927" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>926</v>
       </c>
@@ -40400,7 +40421,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="928" spans="1:12">
+    <row r="928" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>927</v>
       </c>
@@ -40438,7 +40459,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="929" spans="1:12">
+    <row r="929" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>928</v>
       </c>
@@ -40476,7 +40497,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="930" spans="1:12">
+    <row r="930" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>929</v>
       </c>
@@ -40514,7 +40535,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="931" spans="1:12">
+    <row r="931" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>930</v>
       </c>
@@ -40552,7 +40573,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="932" spans="1:12">
+    <row r="932" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>931</v>
       </c>
@@ -40590,7 +40611,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="933" spans="1:12">
+    <row r="933" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>932</v>
       </c>
@@ -40628,7 +40649,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="934" spans="1:12">
+    <row r="934" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>933</v>
       </c>
@@ -40666,7 +40687,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="935" spans="1:12">
+    <row r="935" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>934</v>
       </c>
@@ -40704,7 +40725,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="936" spans="1:12">
+    <row r="936" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>935</v>
       </c>
@@ -40742,7 +40763,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="937" spans="1:12">
+    <row r="937" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>936</v>
       </c>
@@ -40780,7 +40801,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="938" spans="1:12">
+    <row r="938" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>937</v>
       </c>
@@ -40818,7 +40839,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="939" spans="1:12">
+    <row r="939" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>938</v>
       </c>
@@ -40856,7 +40877,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="940" spans="1:12">
+    <row r="940" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>939</v>
       </c>
@@ -40894,7 +40915,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="941" spans="1:12">
+    <row r="941" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>940</v>
       </c>
@@ -40932,7 +40953,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="942" spans="1:12">
+    <row r="942" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>941</v>
       </c>
@@ -40970,7 +40991,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="943" spans="1:12">
+    <row r="943" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>942</v>
       </c>
@@ -41008,7 +41029,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="944" spans="1:12">
+    <row r="944" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>943</v>
       </c>
@@ -41046,7 +41067,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="945" spans="1:12">
+    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>944</v>
       </c>
@@ -41084,7 +41105,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="946" spans="1:12">
+    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>945</v>
       </c>
@@ -41122,7 +41143,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="947" spans="1:12">
+    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>946</v>
       </c>
@@ -41160,7 +41181,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="948" spans="1:12">
+    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>947</v>
       </c>
@@ -41198,7 +41219,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="949" spans="1:12">
+    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>948</v>
       </c>
@@ -41236,7 +41257,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="950" spans="1:12">
+    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>949</v>
       </c>
@@ -41274,7 +41295,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="951" spans="1:12">
+    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>950</v>
       </c>
@@ -41312,7 +41333,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="952" spans="1:12">
+    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>951</v>
       </c>
@@ -41350,7 +41371,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="953" spans="1:12">
+    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>952</v>
       </c>
@@ -41388,7 +41409,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="954" spans="1:12">
+    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>953</v>
       </c>
@@ -41426,7 +41447,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="955" spans="1:12">
+    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>954</v>
       </c>
@@ -41464,7 +41485,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="956" spans="1:12">
+    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>955</v>
       </c>
@@ -41502,7 +41523,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="957" spans="1:12">
+    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>956</v>
       </c>
@@ -41540,7 +41561,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="958" spans="1:12">
+    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>957</v>
       </c>
@@ -41578,7 +41599,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="959" spans="1:12">
+    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>958</v>
       </c>
@@ -41616,7 +41637,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="960" spans="1:12">
+    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>959</v>
       </c>
@@ -41654,7 +41675,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="961" spans="1:12">
+    <row r="961" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>960</v>
       </c>
@@ -41692,7 +41713,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="962" spans="1:12">
+    <row r="962" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>961</v>
       </c>
@@ -41730,7 +41751,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="963" spans="1:12">
+    <row r="963" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>962</v>
       </c>
@@ -41768,7 +41789,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="964" spans="1:12">
+    <row r="964" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>963</v>
       </c>
@@ -41806,7 +41827,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="965" spans="1:12">
+    <row r="965" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>964</v>
       </c>
@@ -41844,7 +41865,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="966" spans="1:12">
+    <row r="966" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>965</v>
       </c>
@@ -41882,7 +41903,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="967" spans="1:12">
+    <row r="967" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>966</v>
       </c>
@@ -41920,7 +41941,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="968" spans="1:12">
+    <row r="968" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>967</v>
       </c>
@@ -41958,7 +41979,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="969" spans="1:12">
+    <row r="969" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>968</v>
       </c>
@@ -41996,7 +42017,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="970" spans="1:12">
+    <row r="970" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>969</v>
       </c>
@@ -42034,7 +42055,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="971" spans="1:12">
+    <row r="971" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>970</v>
       </c>
@@ -42072,7 +42093,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="972" spans="1:12">
+    <row r="972" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>971</v>
       </c>
@@ -42110,7 +42131,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="973" spans="1:12">
+    <row r="973" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>972</v>
       </c>
@@ -42148,7 +42169,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="974" spans="1:12">
+    <row r="974" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>973</v>
       </c>
@@ -42186,7 +42207,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="975" spans="1:12">
+    <row r="975" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>974</v>
       </c>
@@ -42224,7 +42245,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="976" spans="1:12">
+    <row r="976" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>975</v>
       </c>
@@ -42262,7 +42283,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="977" spans="1:12">
+    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>976</v>
       </c>
@@ -42300,7 +42321,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="978" spans="1:12">
+    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>977</v>
       </c>
@@ -42338,7 +42359,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="979" spans="1:12">
+    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>978</v>
       </c>
@@ -42376,7 +42397,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="980" spans="1:12">
+    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>979</v>
       </c>
@@ -42414,7 +42435,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="981" spans="1:12">
+    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>980</v>
       </c>
@@ -42452,7 +42473,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="982" spans="1:12">
+    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>981</v>
       </c>
@@ -42490,7 +42511,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="983" spans="1:12">
+    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>982</v>
       </c>
@@ -42528,7 +42549,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="984" spans="1:12">
+    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>983</v>
       </c>
@@ -42566,7 +42587,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="985" spans="1:12">
+    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>984</v>
       </c>
@@ -42604,7 +42625,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="986" spans="1:12">
+    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>985</v>
       </c>
@@ -42642,7 +42663,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="987" spans="1:12">
+    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>986</v>
       </c>
@@ -42680,7 +42701,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="988" spans="1:12">
+    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>987</v>
       </c>
@@ -42718,7 +42739,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="989" spans="1:12">
+    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>988</v>
       </c>
@@ -42756,7 +42777,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="990" spans="1:12">
+    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>989</v>
       </c>
@@ -42794,7 +42815,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="991" spans="1:12">
+    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>990</v>
       </c>
@@ -42832,7 +42853,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="992" spans="1:12">
+    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>991</v>
       </c>
@@ -42870,7 +42891,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="993" spans="1:12">
+    <row r="993" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>992</v>
       </c>
@@ -42908,7 +42929,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="994" spans="1:12">
+    <row r="994" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>993</v>
       </c>
@@ -42946,7 +42967,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="995" spans="1:12">
+    <row r="995" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>994</v>
       </c>
@@ -42984,7 +43005,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="996" spans="1:12">
+    <row r="996" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>995</v>
       </c>
@@ -43022,7 +43043,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="997" spans="1:12">
+    <row r="997" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>996</v>
       </c>
@@ -43060,7 +43081,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="998" spans="1:12">
+    <row r="998" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>997</v>
       </c>
@@ -43098,7 +43119,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="999" spans="1:12">
+    <row r="999" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>998</v>
       </c>
@@ -43136,7 +43157,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="1000" spans="1:12">
+    <row r="1000" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -43174,7 +43195,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="1001" spans="1:12">
+    <row r="1001" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>1000</v>
       </c>
@@ -43215,4 +43236,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{1a0e6045-188d-4c13-bc7f-8059291f1480}" enabled="1" method="Privileged" siteId="{0144b10e-2b59-46ab-ac58-7a41eed2126b}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>